--- a/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/optimize_flag_visualization_cond.xlsx
+++ b/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/optimize_flag_visualization_cond.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
-    <t xml:space="preserve">DNA template (f111)</t>
+    <t xml:space="preserve">RNA template (f111)</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -134,10 +134,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
   </cols>

--- a/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/optimize_flag_visualization_cond.xlsx
+++ b/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_flag/optimize_flag_visualization_cond.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="8">
   <si>
     <t xml:space="preserve">RNA template (f111)</t>
   </si>
@@ -34,7 +34,16 @@
     <t xml:space="preserve">RNase A</t>
   </si>
   <si>
-    <t xml:space="preserve">Load [uL]</t>
+    <t xml:space="preserve">Gel:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
   </si>
 </sst>
 </file>
@@ -131,13 +140,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
   </cols>
@@ -170,6 +179,18 @@
       <c r="I1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -199,34 +220,58 @@
       <c r="I2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>2.5</v>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
